--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>7.549960859310542</v>
+        <v>1.677769079846787</v>
       </c>
       <c r="C2">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="D2">
-        <v>3.801143664140087</v>
+        <v>0.8446985920311306</v>
       </c>
       <c r="E2">
-        <v>2.294386793649954</v>
+        <v>0.509863731922212</v>
       </c>
       <c r="F2">
-        <v>3.419692728928807</v>
+        <v>0.7599317175397348</v>
       </c>
       <c r="G2">
-        <v>8.16992875366709</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="H2">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="I2">
-        <v>26.26547764065223</v>
+        <v>5.836772809033829</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>7.759959770629114</v>
+        <v>1.724435504584248</v>
       </c>
       <c r="C3">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D3">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="E3">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="F3">
-        <v>3.293968731541718</v>
+        <v>0.7319930514537151</v>
       </c>
       <c r="G3">
-        <v>6.858705620362494</v>
+        <v>1.524156804524999</v>
       </c>
       <c r="H3">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I3">
-        <v>23.60065296584986</v>
+        <v>5.244589547966637</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>7.929958889315579</v>
+        <v>1.762213086514573</v>
       </c>
       <c r="C4">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="D4">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="E4">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F4">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332876</v>
       </c>
       <c r="G4">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="H4">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I4">
-        <v>20.07609548145258</v>
+        <v>4.461354551433906</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>8.609955364061427</v>
+        <v>1.913323414235872</v>
       </c>
       <c r="C5">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D5">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E5">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="F5">
-        <v>2.313321551922428</v>
+        <v>0.5140714559827617</v>
       </c>
       <c r="G5">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="H5">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="I5">
-        <v>20.44162208936084</v>
+        <v>4.54258268652463</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>10.32994644724211</v>
+        <v>2.295543654942692</v>
       </c>
       <c r="C6">
-        <v>0.9120351502934443</v>
+        <v>0.2026744778429876</v>
       </c>
       <c r="D6">
-        <v>2.986612878967212</v>
+        <v>0.6636917508816028</v>
       </c>
       <c r="E6">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F6">
-        <v>1.835570361851492</v>
+        <v>0.4079045248558871</v>
       </c>
       <c r="G6">
-        <v>1.311223133304595</v>
+        <v>0.2913829185121322</v>
       </c>
       <c r="H6">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I6">
-        <v>19.49312434472832</v>
+        <v>4.331805409939627</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>8.959953549592385</v>
+        <v>1.991100788798307</v>
       </c>
       <c r="C7">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D7">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="E7">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F7">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="G7">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="H7">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I7">
-        <v>17.42505727284628</v>
+        <v>3.872234949521396</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>7.149962932989453</v>
+        <v>1.588880651775435</v>
       </c>
       <c r="C8">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="D8">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="E8">
-        <v>2.661488680633947</v>
+        <v>0.5914419290297659</v>
       </c>
       <c r="F8">
-        <v>1.206950374916049</v>
+        <v>0.2682111944257887</v>
       </c>
       <c r="G8">
-        <v>1.210359815358087</v>
+        <v>0.2689688478573526</v>
       </c>
       <c r="H8">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I8">
-        <v>14.68324509169958</v>
+        <v>3.262943353711018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>6.279967443241088</v>
+        <v>1.395548320720241</v>
       </c>
       <c r="C9">
-        <v>1.105497151870842</v>
+        <v>0.2456660337490759</v>
       </c>
       <c r="D9">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="E9">
-        <v>4.038120756823918</v>
+        <v>0.8973601681830932</v>
       </c>
       <c r="F9">
-        <v>0.7291991848451131</v>
+        <v>0.162044263298914</v>
       </c>
       <c r="G9">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="H9">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I9">
-        <v>15.77620534802437</v>
+        <v>3.505823410672082</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>5.529971331389046</v>
+        <v>1.228882518086455</v>
       </c>
       <c r="C10">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="D10">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E10">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F10">
-        <v>0.7040543853676954</v>
+        <v>0.1564565300817101</v>
       </c>
       <c r="G10">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H10">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="I10">
-        <v>11.74314889755634</v>
+        <v>2.609588643901409</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>3.119983825304488</v>
+        <v>0.6933297389565537</v>
       </c>
       <c r="C11">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="D11">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="E11">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F11">
-        <v>0.6286199869354423</v>
+        <v>0.1396933304300983</v>
       </c>
       <c r="G11">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="H11">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I11">
-        <v>6.825185413292183</v>
+        <v>1.516707869620486</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>2.139988905817823</v>
+        <v>0.4755530901817383</v>
       </c>
       <c r="C12">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="D12">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E12">
-        <v>0.6424283022219871</v>
+        <v>0.1427618449382193</v>
       </c>
       <c r="F12">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G12">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="H12">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I12">
-        <v>4.16939718088558</v>
+        <v>0.9265327068634621</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="C13">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D13">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="F13">
-        <v>0.2765927942515946</v>
+        <v>0.06146506538924325</v>
       </c>
       <c r="G13">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="H13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I13">
-        <v>2.232479324431621</v>
+        <v>0.4961065165403602</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.069994452908912</v>
+        <v>0.2377765450908692</v>
       </c>
       <c r="C14">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D14">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="F14">
-        <v>0.3520271926838477</v>
+        <v>0.07822826504085505</v>
       </c>
       <c r="G14">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="H14">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I14">
-        <v>2.524541556134545</v>
+        <v>0.5610092346965654</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.7999958526421765</v>
+        <v>0.1777768561427059</v>
       </c>
       <c r="C15">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="D15">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="F15">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G15">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="I15">
-        <v>1.950672940751363</v>
+        <v>0.433482875722525</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.6899964229038775</v>
+        <v>0.1533325384230839</v>
       </c>
       <c r="C16">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="D16">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="E16">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="F16">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="G16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I16">
-        <v>2.17354275231913</v>
+        <v>0.4830095005153622</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="C17">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D17">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="E17">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="F17">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="G17">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I17">
-        <v>3.208253947355547</v>
+        <v>0.7129453216345661</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>4.39997718953197</v>
+        <v>0.9777727087848828</v>
       </c>
       <c r="C18">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D18">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="E18">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="F18">
-        <v>1.232095174393467</v>
+        <v>0.2737989276429926</v>
       </c>
       <c r="G18">
-        <v>1.916403040983638</v>
+        <v>0.4258673424408085</v>
       </c>
       <c r="H18">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I18">
-        <v>10.66233270859632</v>
+        <v>2.369407268576961</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>6.979963814302995</v>
+        <v>1.55110306984511</v>
       </c>
       <c r="C19">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D19">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="E19">
-        <v>3.946345285077921</v>
+        <v>0.8769656189062047</v>
       </c>
       <c r="F19">
-        <v>2.087018356625668</v>
+        <v>0.4637818570279263</v>
       </c>
       <c r="G19">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="H19">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I19">
-        <v>18.63292860496281</v>
+        <v>4.140650801102847</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>8.479956038007074</v>
+        <v>1.884434675112684</v>
       </c>
       <c r="C20">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="D20">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="E20">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="F20">
-        <v>1.63441196603215</v>
+        <v>0.3632026591182556</v>
       </c>
       <c r="G20">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="I20">
-        <v>18.19123704682547</v>
+        <v>4.042497121516772</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>9.139952616436865</v>
+        <v>2.031100581430415</v>
       </c>
       <c r="C21">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="D21">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="E21">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="F21">
-        <v>1.96129435923858</v>
+        <v>0.4358431909419067</v>
       </c>
       <c r="G21">
-        <v>2.723309584555696</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="H21">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I21">
-        <v>20.82641532218356</v>
+        <v>4.62809229381857</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>8.049958267211906</v>
+        <v>1.788879614935979</v>
       </c>
       <c r="C22">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="D22">
-        <v>3.982150505289615</v>
+        <v>0.8849223345088036</v>
       </c>
       <c r="E22">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F22">
-        <v>3.218534333109465</v>
+        <v>0.7152298518021033</v>
       </c>
       <c r="G22">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="H22">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I22">
-        <v>24.87121747655557</v>
+        <v>5.526937217012347</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>6.719965162194288</v>
+        <v>1.49332559159873</v>
       </c>
       <c r="C23">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D23">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="E23">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F23">
-        <v>3.394547929451389</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="G23">
-        <v>7.867338799827567</v>
+        <v>1.748297511072793</v>
       </c>
       <c r="H23">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="I23">
-        <v>23.18944898743762</v>
+        <v>5.153210886097249</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>6.249967598767006</v>
+        <v>1.38888168861489</v>
       </c>
       <c r="C24">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D24">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E24">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F24">
-        <v>3.243679132586882</v>
+        <v>0.7208175850193073</v>
       </c>
       <c r="G24">
-        <v>9.380288569025176</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="H24">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I24">
-        <v>24.11325319433548</v>
+        <v>5.358500709852329</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>6.709965214036255</v>
+        <v>1.491103380896946</v>
       </c>
       <c r="C25">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="D25">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="E25">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F25">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="G25">
-        <v>9.6828785228647</v>
+        <v>2.151750782858821</v>
       </c>
       <c r="H25">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I25">
-        <v>24.92082524873617</v>
+        <v>5.537961166385814</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>7.469961274046324</v>
+        <v>1.659991394232517</v>
       </c>
       <c r="C26">
-        <v>1.298959153448239</v>
+        <v>0.2886575896551641</v>
       </c>
       <c r="D26">
-        <v>3.439129981841032</v>
+        <v>0.764251107075785</v>
       </c>
       <c r="E26">
-        <v>1.927284906665961</v>
+        <v>0.428285534814658</v>
       </c>
       <c r="F26">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332876</v>
       </c>
       <c r="G26">
-        <v>8.976835297239148</v>
+        <v>1.994852288275366</v>
       </c>
       <c r="H26">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I26">
-        <v>26.42747773775551</v>
+        <v>5.872772830612335</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>7.379961740624082</v>
+        <v>1.639991497916462</v>
       </c>
       <c r="C27">
-        <v>1.188409438261155</v>
+        <v>0.2640909862802566</v>
       </c>
       <c r="D27">
-        <v>3.167619720116739</v>
+        <v>0.7039154933592756</v>
       </c>
       <c r="E27">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="F27">
-        <v>3.143099934677211</v>
+        <v>0.6984666521504916</v>
       </c>
       <c r="G27">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="H27">
-        <v>0.8387459545887864</v>
+        <v>0.1863879899086192</v>
       </c>
       <c r="I27">
-        <v>23.61423314617889</v>
+        <v>5.24760736581753</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>7.69996008168095</v>
+        <v>1.711102240373545</v>
       </c>
       <c r="C28">
-        <v>1.160772009464384</v>
+        <v>0.2579493354365296</v>
       </c>
       <c r="D28">
-        <v>3.439129981841032</v>
+        <v>0.764251107075785</v>
       </c>
       <c r="E28">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F28">
-        <v>3.042520736767541</v>
+        <v>0.6761157192816757</v>
       </c>
       <c r="G28">
-        <v>7.564748845988046</v>
+        <v>1.681055299108455</v>
       </c>
       <c r="H28">
-        <v>0.3453659813012649</v>
+        <v>0.07674799584472555</v>
       </c>
       <c r="I28">
-        <v>25.45510895894717</v>
+        <v>5.656690879766039</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>7.199962673779587</v>
+        <v>1.599991705284353</v>
       </c>
       <c r="C29">
-        <v>0.9949474366837573</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D29">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="E29">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F29">
-        <v>2.087018356625668</v>
+        <v>0.4637818570279263</v>
       </c>
       <c r="G29">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="H29">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I29">
-        <v>22.23633488515365</v>
+        <v>4.941407752256366</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>8.189957541424285</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="C30">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="D30">
-        <v>3.529633402415795</v>
+        <v>0.7843629783146213</v>
       </c>
       <c r="E30">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="F30">
-        <v>2.011583958193416</v>
+        <v>0.4470186573763146</v>
       </c>
       <c r="G30">
-        <v>5.850072440897422</v>
+        <v>1.300016097977205</v>
       </c>
       <c r="H30">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I30">
-        <v>21.86585616151072</v>
+        <v>4.859079147002383</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>7.979958630105711</v>
+        <v>1.773324140023493</v>
       </c>
       <c r="C31">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="D31">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="E31">
-        <v>3.303916982855934</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F31">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="G31">
-        <v>4.538849307592827</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="I31">
-        <v>18.47263950597055</v>
+        <v>4.105031001326791</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>7.099963192199325</v>
+        <v>1.577769598266515</v>
       </c>
       <c r="C32">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D32">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="E32">
-        <v>3.854569813331922</v>
+        <v>0.856571069629316</v>
       </c>
       <c r="F32">
-        <v>1.106371177006378</v>
+        <v>0.245860261556973</v>
       </c>
       <c r="G32">
-        <v>3.530216128127754</v>
+        <v>0.7844924729172789</v>
       </c>
       <c r="I32">
-        <v>17.83093242248113</v>
+        <v>3.962429427218026</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>5.659970657443401</v>
+        <v>1.257771257209644</v>
       </c>
       <c r="C33">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="D33">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="E33">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F33">
-        <v>0.6286199869354423</v>
+        <v>0.1396933304300983</v>
       </c>
       <c r="G33">
-        <v>1.512949769197609</v>
+        <v>0.3362110598216909</v>
       </c>
       <c r="I33">
-        <v>13.5374594586543</v>
+        <v>3.008324324145399</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>4.459976878480137</v>
+        <v>0.9911059729955856</v>
       </c>
       <c r="C34">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D34">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E34">
-        <v>2.661488680633947</v>
+        <v>0.5914419290297659</v>
       </c>
       <c r="F34">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G34">
-        <v>1.412086451251102</v>
+        <v>0.3137969891669116</v>
       </c>
       <c r="I34">
-        <v>10.37621915078925</v>
+        <v>2.305826477953167</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>2.929984810301975</v>
+        <v>0.6511077356226603</v>
       </c>
       <c r="C35">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D35">
-        <v>0.6335239440233481</v>
+        <v>0.1407830986718552</v>
       </c>
       <c r="E35">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="F35">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="G35">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="I35">
-        <v>8.238650656725108</v>
+        <v>1.830811257050023</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>2.099989113185714</v>
+        <v>0.466664247374603</v>
       </c>
       <c r="C36">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D36">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="E36">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="F36">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="G36">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="H36">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I36">
-        <v>5.023769612690965</v>
+        <v>1.116393247264659</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>1.269993416069455</v>
+        <v>0.2822207591265456</v>
       </c>
       <c r="C37">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="E37">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="F37">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="G37">
-        <v>1.210359815358087</v>
+        <v>0.2689688478573526</v>
       </c>
       <c r="I37">
-        <v>3.032212981725119</v>
+        <v>0.6738251070500264</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.8999953342224484</v>
+        <v>0.1999989631605441</v>
       </c>
       <c r="C38">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D38">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="E38">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="F38">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="G38">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I38">
-        <v>2.234875703898077</v>
+        <v>0.4966390453106838</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.619996785797687</v>
+        <v>0.1377770635105971</v>
       </c>
       <c r="C39">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="D39">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="F39">
-        <v>0.05028959895483539</v>
+        <v>0.01117546643440786</v>
       </c>
       <c r="G39">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="I39">
-        <v>2.186711524684958</v>
+        <v>0.485935894374435</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.4999974079013602</v>
+        <v>0.1111105350891912</v>
       </c>
       <c r="C40">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D40">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="E40">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="F40">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G40">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I40">
-        <v>1.890547687422495</v>
+        <v>0.4201217083161101</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="C41">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D41">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E41">
-        <v>0.2753264152379944</v>
+        <v>0.06118364783066543</v>
       </c>
       <c r="F41">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G41">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I41">
-        <v>2.798218634576185</v>
+        <v>0.6218263632391523</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>3.519981751625577</v>
+        <v>0.7822181670279061</v>
       </c>
       <c r="C42">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D42">
-        <v>1.629061570345751</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E42">
-        <v>1.00953018920598</v>
+        <v>0.2243400420457733</v>
       </c>
       <c r="F42">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="G42">
-        <v>1.512949769197609</v>
+        <v>0.3362110598216909</v>
       </c>
       <c r="I42">
-        <v>8.755242287223231</v>
+        <v>1.945609397160718</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>5.779970035339729</v>
+        <v>1.284437785631051</v>
       </c>
       <c r="C43">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D43">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="E43">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="F43">
-        <v>2.187597554535339</v>
+        <v>0.4861327898967421</v>
       </c>
       <c r="G43">
-        <v>2.824172902502204</v>
+        <v>0.6275939783338232</v>
       </c>
       <c r="I43">
-        <v>16.34560482357587</v>
+        <v>3.632356627461305</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>8.219957385898368</v>
+        <v>1.826657196866303</v>
       </c>
       <c r="C44">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="D44">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="E44">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="F44">
-        <v>1.156660775961214</v>
+        <v>0.2570357279913809</v>
       </c>
       <c r="G44">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="H44">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I44">
-        <v>16.89582419748037</v>
+        <v>3.75462759944008</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>7.879959148525439</v>
+        <v>1.751102033005654</v>
       </c>
       <c r="C45">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="D45">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E45">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F45">
-        <v>1.936149559761162</v>
+        <v>0.4302554577247026</v>
       </c>
       <c r="G45">
-        <v>3.832806081967276</v>
+        <v>0.851734684881617</v>
       </c>
       <c r="H45">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I45">
-        <v>19.06164839117537</v>
+        <v>4.235921864705639</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>7.439961429572238</v>
+        <v>1.653324762127165</v>
       </c>
       <c r="C46">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="D46">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E46">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="F46">
-        <v>2.564769546696605</v>
+        <v>0.5699487881548011</v>
       </c>
       <c r="G46">
-        <v>5.144029215271871</v>
+        <v>1.143117603393749</v>
       </c>
       <c r="H46">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I46">
-        <v>21.27926820818171</v>
+        <v>4.728726268484825</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>5.759970139023673</v>
+        <v>1.279993364227483</v>
       </c>
       <c r="C47">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="D47">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="E47">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F47">
-        <v>3.168244734154629</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="G47">
-        <v>5.547482487057899</v>
+        <v>1.232773886012867</v>
       </c>
       <c r="H47">
-        <v>0.7400699599312821</v>
+        <v>0.1644599910958404</v>
       </c>
       <c r="I47">
-        <v>20.38817119030139</v>
+        <v>4.530704708955864</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>6.359967028505302</v>
+        <v>1.413326006334513</v>
       </c>
       <c r="C48">
-        <v>1.0502222942773</v>
+        <v>0.2333827320616221</v>
       </c>
       <c r="D48">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="E48">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F48">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="G48">
-        <v>4.236259353753305</v>
+        <v>0.9413909675007345</v>
       </c>
       <c r="H48">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I48">
-        <v>19.69020103724562</v>
+        <v>4.375600230499028</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>6.709965214036255</v>
+        <v>1.491103380896946</v>
       </c>
       <c r="C49">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="D49">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="E49">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F49">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="G49">
-        <v>9.6828785228647</v>
+        <v>2.151750782858821</v>
       </c>
       <c r="H49">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I49">
-        <v>24.92082524873617</v>
+        <v>5.537961166385814</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.677769079846787</v>
+        <v>7.549960859310542</v>
       </c>
       <c r="C2">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D2">
-        <v>0.8446985920311306</v>
+        <v>3.801143664140087</v>
       </c>
       <c r="E2">
-        <v>0.509863731922212</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="F2">
-        <v>0.7599317175397348</v>
+        <v>3.419692728928807</v>
       </c>
       <c r="G2">
-        <v>1.815539723037131</v>
+        <v>8.16992875366709</v>
       </c>
       <c r="H2">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="I2">
-        <v>5.836772809033829</v>
+        <v>26.26547764065223</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.724435504584248</v>
+        <v>7.759959770629114</v>
       </c>
       <c r="C3">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D3">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="E3">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F3">
-        <v>0.7319930514537151</v>
+        <v>3.293968731541718</v>
       </c>
       <c r="G3">
-        <v>1.524156804524999</v>
+        <v>6.858705620362494</v>
       </c>
       <c r="H3">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I3">
-        <v>5.244589547966637</v>
+        <v>23.60065296584986</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.762213086514573</v>
+        <v>7.929958889315579</v>
       </c>
       <c r="C4">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="D4">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="E4">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F4">
-        <v>0.6928789189332876</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="G4">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="H4">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I4">
-        <v>4.461354551433906</v>
+        <v>20.07609548145258</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.913323414235872</v>
+        <v>8.609955364061427</v>
       </c>
       <c r="C5">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D5">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E5">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="F5">
-        <v>0.5140714559827617</v>
+        <v>2.313321551922428</v>
       </c>
       <c r="G5">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="H5">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="I5">
-        <v>4.54258268652463</v>
+        <v>20.44162208936084</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.295543654942692</v>
+        <v>10.32994644724211</v>
       </c>
       <c r="C6">
-        <v>0.2026744778429876</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="D6">
-        <v>0.6636917508816028</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="E6">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F6">
-        <v>0.4079045248558871</v>
+        <v>1.835570361851492</v>
       </c>
       <c r="G6">
-        <v>0.2913829185121322</v>
+        <v>1.311223133304595</v>
       </c>
       <c r="H6">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I6">
-        <v>4.331805409939627</v>
+        <v>19.49312434472832</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.991100788798307</v>
+        <v>8.959953549592385</v>
       </c>
       <c r="C7">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D7">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="E7">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F7">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G7">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H7">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I7">
-        <v>3.872234949521396</v>
+        <v>17.42505727284628</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.588880651775435</v>
+        <v>7.149962932989453</v>
       </c>
       <c r="C8">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="D8">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E8">
-        <v>0.5914419290297659</v>
+        <v>2.661488680633947</v>
       </c>
       <c r="F8">
-        <v>0.2682111944257887</v>
+        <v>1.206950374916049</v>
       </c>
       <c r="G8">
-        <v>0.2689688478573526</v>
+        <v>1.210359815358087</v>
       </c>
       <c r="H8">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I8">
-        <v>3.262943353711018</v>
+        <v>14.68324509169958</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.395548320720241</v>
+        <v>6.279967443241088</v>
       </c>
       <c r="C9">
-        <v>0.2456660337490759</v>
+        <v>1.105497151870842</v>
       </c>
       <c r="D9">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E9">
-        <v>0.8973601681830932</v>
+        <v>4.038120756823918</v>
       </c>
       <c r="F9">
-        <v>0.162044263298914</v>
+        <v>0.7291991848451131</v>
       </c>
       <c r="G9">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H9">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I9">
-        <v>3.505823410672082</v>
+        <v>15.77620534802437</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.228882518086455</v>
+        <v>5.529971331389046</v>
       </c>
       <c r="C10">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D10">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E10">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F10">
-        <v>0.1564565300817101</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="G10">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H10">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="I10">
-        <v>2.609588643901409</v>
+        <v>11.74314889755634</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.6933297389565537</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="C11">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D11">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="E11">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F11">
-        <v>0.1396933304300983</v>
+        <v>0.6286199869354423</v>
       </c>
       <c r="G11">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="H11">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I11">
-        <v>1.516707869620486</v>
+        <v>6.825185413292183</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.4755530901817383</v>
+        <v>2.139988905817823</v>
       </c>
       <c r="C12">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D12">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E12">
-        <v>0.1427618449382193</v>
+        <v>0.6424283022219871</v>
       </c>
       <c r="F12">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G12">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H12">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I12">
-        <v>0.9265327068634621</v>
+        <v>4.16939718088558</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="C13">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D13">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="F13">
-        <v>0.06146506538924325</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="G13">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="H13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I13">
-        <v>0.4961065165403602</v>
+        <v>2.232479324431621</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2377765450908692</v>
+        <v>1.069994452908912</v>
       </c>
       <c r="C14">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D14">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="F14">
-        <v>0.07822826504085505</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="G14">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="H14">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I14">
-        <v>0.5610092346965654</v>
+        <v>2.524541556134545</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1777768561427059</v>
+        <v>0.7999958526421765</v>
       </c>
       <c r="C15">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D15">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F15">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G15">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I15">
-        <v>0.433482875722525</v>
+        <v>1.950672940751363</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1533325384230839</v>
+        <v>0.6899964229038775</v>
       </c>
       <c r="C16">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D16">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E16">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="F16">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I16">
-        <v>0.4830095005153622</v>
+        <v>2.17354275231913</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="C17">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D17">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E17">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F17">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="G17">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I17">
-        <v>0.7129453216345661</v>
+        <v>3.208253947355547</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.9777727087848828</v>
+        <v>4.39997718953197</v>
       </c>
       <c r="C18">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D18">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="E18">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F18">
-        <v>0.2737989276429926</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="G18">
-        <v>0.4258673424408085</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="H18">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I18">
-        <v>2.369407268576961</v>
+        <v>10.66233270859632</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.55110306984511</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="C19">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D19">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E19">
-        <v>0.8769656189062047</v>
+        <v>3.946345285077921</v>
       </c>
       <c r="F19">
-        <v>0.4637818570279263</v>
+        <v>2.087018356625668</v>
       </c>
       <c r="G19">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H19">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I19">
-        <v>4.140650801102847</v>
+        <v>18.63292860496281</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.884434675112684</v>
+        <v>8.479956038007074</v>
       </c>
       <c r="C20">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D20">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="E20">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F20">
-        <v>0.3632026591182556</v>
+        <v>1.63441196603215</v>
       </c>
       <c r="G20">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="I20">
-        <v>4.042497121516772</v>
+        <v>18.19123704682547</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.031100581430415</v>
+        <v>9.139952616436865</v>
       </c>
       <c r="C21">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D21">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="E21">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="F21">
-        <v>0.4358431909419067</v>
+        <v>1.96129435923858</v>
       </c>
       <c r="G21">
-        <v>0.6051799076790437</v>
+        <v>2.723309584555696</v>
       </c>
       <c r="H21">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I21">
-        <v>4.62809229381857</v>
+        <v>20.82641532218356</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.788879614935979</v>
+        <v>8.049958267211906</v>
       </c>
       <c r="C22">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="D22">
-        <v>0.8849223345088036</v>
+        <v>3.982150505289615</v>
       </c>
       <c r="E22">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F22">
-        <v>0.7152298518021033</v>
+        <v>3.218534333109465</v>
       </c>
       <c r="G22">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="H22">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I22">
-        <v>5.526937217012347</v>
+        <v>24.87121747655557</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.49332559159873</v>
+        <v>6.719965162194288</v>
       </c>
       <c r="C23">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D23">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="E23">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F23">
-        <v>0.7543439843225307</v>
+        <v>3.394547929451389</v>
       </c>
       <c r="G23">
-        <v>1.748297511072793</v>
+        <v>7.867338799827567</v>
       </c>
       <c r="H23">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="I23">
-        <v>5.153210886097249</v>
+        <v>23.18944898743762</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.38888168861489</v>
+        <v>6.249967598767006</v>
       </c>
       <c r="C24">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D24">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E24">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F24">
-        <v>0.7208175850193073</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="G24">
-        <v>2.084508570894484</v>
+        <v>9.380288569025176</v>
       </c>
       <c r="H24">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I24">
-        <v>5.358500709852329</v>
+        <v>24.11325319433548</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.491103380896946</v>
+        <v>6.709965214036255</v>
       </c>
       <c r="C25">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="D25">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E25">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F25">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="G25">
-        <v>2.151750782858821</v>
+        <v>9.6828785228647</v>
       </c>
       <c r="H25">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I25">
-        <v>5.537961166385814</v>
+        <v>24.92082524873617</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.659991394232517</v>
+        <v>7.469961274046324</v>
       </c>
       <c r="C26">
-        <v>0.2886575896551641</v>
+        <v>1.298959153448239</v>
       </c>
       <c r="D26">
-        <v>0.764251107075785</v>
+        <v>3.439129981841032</v>
       </c>
       <c r="E26">
-        <v>0.428285534814658</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="F26">
-        <v>0.6928789189332876</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="G26">
-        <v>1.994852288275366</v>
+        <v>8.976835297239148</v>
       </c>
       <c r="H26">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I26">
-        <v>5.872772830612335</v>
+        <v>26.42747773775551</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.639991497916462</v>
+        <v>7.379961740624082</v>
       </c>
       <c r="C27">
-        <v>0.2640909862802566</v>
+        <v>1.188409438261155</v>
       </c>
       <c r="D27">
-        <v>0.7039154933592756</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="E27">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F27">
-        <v>0.6984666521504916</v>
+        <v>3.143099934677211</v>
       </c>
       <c r="G27">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="H27">
-        <v>0.1863879899086192</v>
+        <v>0.8387459545887864</v>
       </c>
       <c r="I27">
-        <v>5.24760736581753</v>
+        <v>23.61423314617889</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.711102240373545</v>
+        <v>7.69996008168095</v>
       </c>
       <c r="C28">
-        <v>0.2579493354365296</v>
+        <v>1.160772009464384</v>
       </c>
       <c r="D28">
-        <v>0.764251107075785</v>
+        <v>3.439129981841032</v>
       </c>
       <c r="E28">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F28">
-        <v>0.6761157192816757</v>
+        <v>3.042520736767541</v>
       </c>
       <c r="G28">
-        <v>1.681055299108455</v>
+        <v>7.564748845988046</v>
       </c>
       <c r="H28">
-        <v>0.07674799584472555</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="I28">
-        <v>5.656690879766039</v>
+        <v>25.45510895894717</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.599991705284353</v>
+        <v>7.199962673779587</v>
       </c>
       <c r="C29">
-        <v>0.2210994303741683</v>
+        <v>0.9949474366837573</v>
       </c>
       <c r="D29">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="E29">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F29">
-        <v>0.4637818570279263</v>
+        <v>2.087018356625668</v>
       </c>
       <c r="G29">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="H29">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I29">
-        <v>4.941407752256366</v>
+        <v>22.23633488515365</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.819990564760952</v>
+        <v>8.189957541424285</v>
       </c>
       <c r="C30">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D30">
-        <v>0.7843629783146213</v>
+        <v>3.529633402415795</v>
       </c>
       <c r="E30">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F30">
-        <v>0.4470186573763146</v>
+        <v>2.011583958193416</v>
       </c>
       <c r="G30">
-        <v>1.300016097977205</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="H30">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I30">
-        <v>4.859079147002383</v>
+        <v>21.86585616151072</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.773324140023493</v>
+        <v>7.979958630105711</v>
       </c>
       <c r="C31">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D31">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E31">
-        <v>0.7342037739679854</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="F31">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G31">
-        <v>1.008633179465073</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="I31">
-        <v>4.105031001326791</v>
+        <v>18.47263950597055</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.577769598266515</v>
+        <v>7.099963192199325</v>
       </c>
       <c r="C32">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D32">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="E32">
-        <v>0.856571069629316</v>
+        <v>3.854569813331922</v>
       </c>
       <c r="F32">
-        <v>0.245860261556973</v>
+        <v>1.106371177006378</v>
       </c>
       <c r="G32">
-        <v>0.7844924729172789</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="I32">
-        <v>3.962429427218026</v>
+        <v>17.83093242248113</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.257771257209644</v>
+        <v>5.659970657443401</v>
       </c>
       <c r="C33">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D33">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="E33">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F33">
-        <v>0.1396933304300983</v>
+        <v>0.6286199869354423</v>
       </c>
       <c r="G33">
-        <v>0.3362110598216909</v>
+        <v>1.512949769197609</v>
       </c>
       <c r="I33">
-        <v>3.008324324145399</v>
+        <v>13.5374594586543</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.9911059729955856</v>
+        <v>4.459976878480137</v>
       </c>
       <c r="C34">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D34">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E34">
-        <v>0.5914419290297659</v>
+        <v>2.661488680633947</v>
       </c>
       <c r="F34">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G34">
-        <v>0.3137969891669116</v>
+        <v>1.412086451251102</v>
       </c>
       <c r="I34">
-        <v>2.305826477953167</v>
+        <v>10.37621915078925</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.6511077356226603</v>
+        <v>2.929984810301975</v>
       </c>
       <c r="C35">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D35">
-        <v>0.1407830986718552</v>
+        <v>0.6335239440233481</v>
       </c>
       <c r="E35">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F35">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G35">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="I35">
-        <v>1.830811257050023</v>
+        <v>8.238650656725108</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.466664247374603</v>
+        <v>2.099989113185714</v>
       </c>
       <c r="C36">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D36">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E36">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F36">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G36">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="H36">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I36">
-        <v>1.116393247264659</v>
+        <v>5.023769612690965</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2822207591265456</v>
+        <v>1.269993416069455</v>
       </c>
       <c r="C37">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="E37">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F37">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G37">
-        <v>0.2689688478573526</v>
+        <v>1.210359815358087</v>
       </c>
       <c r="I37">
-        <v>0.6738251070500264</v>
+        <v>3.032212981725119</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1999989631605441</v>
+        <v>0.8999953342224484</v>
       </c>
       <c r="C38">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D38">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="E38">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F38">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="G38">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I38">
-        <v>0.4966390453106838</v>
+        <v>2.234875703898077</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1377770635105971</v>
+        <v>0.619996785797687</v>
       </c>
       <c r="C39">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D39">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="F39">
-        <v>0.01117546643440786</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G39">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="I39">
-        <v>0.485935894374435</v>
+        <v>2.186711524684958</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1111105350891912</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="C40">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D40">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="E40">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="F40">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G40">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I40">
-        <v>0.4201217083161101</v>
+        <v>1.890547687422495</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="C41">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D41">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E41">
-        <v>0.06118364783066543</v>
+        <v>0.2753264152379944</v>
       </c>
       <c r="F41">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G41">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I41">
-        <v>0.6218263632391523</v>
+        <v>2.798218634576185</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.7822181670279061</v>
+        <v>3.519981751625577</v>
       </c>
       <c r="C42">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D42">
-        <v>0.362013682299056</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="E42">
-        <v>0.2243400420457733</v>
+        <v>1.00953018920598</v>
       </c>
       <c r="F42">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G42">
-        <v>0.3362110598216909</v>
+        <v>1.512949769197609</v>
       </c>
       <c r="I42">
-        <v>1.945609397160718</v>
+        <v>8.755242287223231</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.284437785631051</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="C43">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D43">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="E43">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F43">
-        <v>0.4861327898967421</v>
+        <v>2.187597554535339</v>
       </c>
       <c r="G43">
-        <v>0.6275939783338232</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="I43">
-        <v>3.632356627461305</v>
+        <v>16.34560482357587</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.826657196866303</v>
+        <v>8.219957385898368</v>
       </c>
       <c r="C44">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D44">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E44">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F44">
-        <v>0.2570357279913809</v>
+        <v>1.156660775961214</v>
       </c>
       <c r="G44">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="H44">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I44">
-        <v>3.75462759944008</v>
+        <v>16.89582419748037</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.751102033005654</v>
+        <v>7.879959148525439</v>
       </c>
       <c r="C45">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="D45">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E45">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F45">
-        <v>0.4302554577247026</v>
+        <v>1.936149559761162</v>
       </c>
       <c r="G45">
-        <v>0.851734684881617</v>
+        <v>3.832806081967276</v>
       </c>
       <c r="H45">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I45">
-        <v>4.235921864705639</v>
+        <v>19.06164839117537</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.653324762127165</v>
+        <v>7.439961429572238</v>
       </c>
       <c r="C46">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="D46">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E46">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F46">
-        <v>0.5699487881548011</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="G46">
-        <v>1.143117603393749</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="H46">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I46">
-        <v>4.728726268484825</v>
+        <v>21.27926820818171</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.279993364227483</v>
+        <v>5.759970139023673</v>
       </c>
       <c r="C47">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="D47">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E47">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F47">
-        <v>0.7040543853676954</v>
+        <v>3.168244734154629</v>
       </c>
       <c r="G47">
-        <v>1.232773886012867</v>
+        <v>5.547482487057899</v>
       </c>
       <c r="H47">
-        <v>0.1644599910958404</v>
+        <v>0.7400699599312821</v>
       </c>
       <c r="I47">
-        <v>4.530704708955864</v>
+        <v>20.38817119030139</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.413326006334513</v>
+        <v>6.359967028505302</v>
       </c>
       <c r="C48">
-        <v>0.2333827320616221</v>
+        <v>1.0502222942773</v>
       </c>
       <c r="D48">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="E48">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F48">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="G48">
-        <v>0.9413909675007345</v>
+        <v>4.236259353753305</v>
       </c>
       <c r="H48">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I48">
-        <v>4.375600230499028</v>
+        <v>19.69020103724562</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.491103380896946</v>
+        <v>6.709965214036255</v>
       </c>
       <c r="C49">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="D49">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E49">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F49">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="G49">
-        <v>2.151750782858821</v>
+        <v>9.6828785228647</v>
       </c>
       <c r="H49">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I49">
-        <v>5.537961166385814</v>
+        <v>24.92082524873617</v>
       </c>
     </row>
   </sheetData>
